--- a/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a50_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M20_N50_T0_a50_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>num cuts</t>
   </si>
   <si>
     <t>num variables</t>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,298 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-214.86606520772074</v>
+        <v>-105.20922805100014</v>
       </c>
       <c r="C2">
-        <v>9.323504619</v>
+        <v>10.329773651</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>272</v>
-      </c>
       <c r="G2">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-208.96556509060866</v>
+        <v>-100.25578091436607</v>
       </c>
       <c r="C3">
-        <v>0.059926557</v>
+        <v>1.300542726</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-220.19797514944963</v>
+        <v>-103.67140171307204</v>
       </c>
       <c r="C4">
-        <v>0.086216414</v>
+        <v>1.258398649</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>245</v>
+        <v>938</v>
       </c>
       <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-222.8214373416837</v>
+        <v>-103.09145004118963</v>
       </c>
       <c r="C5">
-        <v>0.069672428</v>
+        <v>1.461885382</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>272</v>
-      </c>
       <c r="G5">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="H5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-214.98729876470497</v>
+        <v>-102.05315976383038</v>
       </c>
       <c r="C6">
-        <v>0.051819899</v>
+        <v>0.91129957</v>
       </c>
       <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>272</v>
-      </c>
       <c r="G6">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="H6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-215.90768387010934</v>
+        <v>-102.0105773376583</v>
       </c>
       <c r="C7">
-        <v>0.058421865</v>
+        <v>0.925637589</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="H7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>735</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-205.70438735399554</v>
+        <v>-97.44343294495314</v>
       </c>
       <c r="C8">
-        <v>0.061818965</v>
+        <v>0.551717984</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>272</v>
-      </c>
       <c r="G8">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="H8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-214.18677486528318</v>
+        <v>-102.53029754612697</v>
       </c>
       <c r="C9">
-        <v>0.063982401</v>
+        <v>0.784993033</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>272</v>
-      </c>
       <c r="G9">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>490</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-218.9791783602711</v>
+        <v>-102.29121933446142</v>
       </c>
       <c r="C10">
-        <v>0.072516791</v>
+        <v>1.522469776</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>245</v>
+        <v>1160</v>
       </c>
       <c r="H10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1225</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-208.42363263884084</v>
+        <v>-99.01915297564398</v>
       </c>
       <c r="C11">
-        <v>0.080317103</v>
+        <v>0.970738836</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>272</v>
-      </c>
       <c r="G11">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>490</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -724,27 +763,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -755,20 +797,94 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.99349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.021628382179077147</v>
+      </c>
+      <c r="E2">
+        <v>52.47722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-218.9791783602711</v>
+        <v>-105.83933475767557</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08011104899994179</v>
       </c>
       <c r="D3">
+        <v>0.1520643744506836</v>
+      </c>
+      <c r="E3">
+        <v>1.70431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-104.80656439604695</v>
+      </c>
+      <c r="C4">
+        <v>0.006323754097840676</v>
+      </c>
+      <c r="D4">
+        <v>0.2094334358666992</v>
+      </c>
+      <c r="E4">
+        <v>1.17982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-102.82492244613736</v>
+      </c>
+      <c r="C5">
+        <v>0.06642827934416301</v>
+      </c>
+      <c r="D5">
+        <v>0.32964207452600097</v>
+      </c>
+      <c r="E5">
+        <v>0.96068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-102.5237935696035</v>
+      </c>
+      <c r="C6">
+        <v>0.054980951581669685</v>
+      </c>
+      <c r="D6">
+        <v>0.2494385665028076</v>
+      </c>
+      <c r="E6">
+        <v>0.72563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-102.29121933446142</v>
+      </c>
+      <c r="C7">
+        <v>0.09425157633683577</v>
+      </c>
+      <c r="D7">
+        <v>0.3363845181992188</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -779,27 +895,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,20 +929,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.27749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.023577380291625975</v>
+      </c>
+      <c r="E2">
+        <v>49.97122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-208.42363263884084</v>
+        <v>-99.58982932055501</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.013464589812683584</v>
       </c>
       <c r="D3">
+        <v>0.29122388433117674</v>
+      </c>
+      <c r="E3">
+        <v>0.59139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-99.01915297564398</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.5701983214847413</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -834,27 +976,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +1010,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.10423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.9455555869299317</v>
+      </c>
+      <c r="E2">
+        <v>49.3648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-214.86606520772074</v>
+        <v>-106.30861945625277</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08205894814118607</v>
       </c>
       <c r="D3">
+        <v>0.20707193933557128</v>
+      </c>
+      <c r="E3">
+        <v>1.49506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-105.20922805100014</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.2846887546538086</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +1057,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +1091,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.69716</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03362906668835449</v>
+      </c>
+      <c r="E2">
+        <v>51.44005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-208.96556509060866</v>
+        <v>-106.06328854906636</v>
       </c>
       <c r="C3">
-        <v>1.3601144962839496e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.052871546756713864</v>
+      </c>
+      <c r="E3">
+        <v>2.14265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-102.1554124926675</v>
+      </c>
+      <c r="C4">
+        <v>0.0020573767918100274</v>
+      </c>
+      <c r="D4">
+        <v>0.2507398103190918</v>
+      </c>
+      <c r="E4">
+        <v>1.27073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-100.88444524687372</v>
+      </c>
+      <c r="C5">
+        <v>0.003903942135193386</v>
+      </c>
+      <c r="D5">
+        <v>0.349719120994751</v>
+      </c>
+      <c r="E5">
+        <v>0.64729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-100.25578091436607</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>0.4543520883175049</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -944,27 +1172,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -975,20 +1206,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.85548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.024897644760375977</v>
+      </c>
+      <c r="E2">
+        <v>48.49419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-220.19797514944963</v>
+        <v>-109.96364927085023</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0939566207354384</v>
       </c>
       <c r="D3">
+        <v>0.3063469509404297</v>
+      </c>
+      <c r="E3">
+        <v>3.00836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-104.4143597466315</v>
+      </c>
+      <c r="C4">
+        <v>0.0656533845423595</v>
+      </c>
+      <c r="D4">
+        <v>0.2625077979538574</v>
+      </c>
+      <c r="E4">
+        <v>1.53109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-103.6791451791297</v>
+      </c>
+      <c r="C5">
+        <v>0.010569170810616955</v>
+      </c>
+      <c r="D5">
+        <v>0.2346490787161865</v>
+      </c>
+      <c r="E5">
+        <v>0.09377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-103.67140171307204</v>
+      </c>
+      <c r="C6">
+        <v>0.025827272233919264</v>
+      </c>
+      <c r="D6">
+        <v>0.29365297323266604</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -999,27 +1287,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,20 +1321,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.73828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009403947321166992</v>
+      </c>
+      <c r="E2">
+        <v>51.58398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-222.8214373416837</v>
+        <v>-104.77046857823203</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>0.7345599240216064</v>
+      </c>
+      <c r="E3">
+        <v>2.14491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-103.09145004118963</v>
+      </c>
+      <c r="C4">
+        <v>0.027205682459211157</v>
+      </c>
+      <c r="D4">
+        <v>0.5765445778574219</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -1054,27 +1368,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,20 +1402,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>15.21848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03722807444787598</v>
+      </c>
+      <c r="E2">
+        <v>53.26468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-214.98729876470497</v>
+        <v>-106.58612741496927</v>
       </c>
       <c r="C3">
-        <v>2.644036144804742e-14</v>
+        <v>0.03305717702484226</v>
       </c>
       <c r="D3">
+        <v>0.20615708362646484</v>
+      </c>
+      <c r="E3">
+        <v>2.36476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-102.05315976383038</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.5577468540566406</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -1109,27 +1449,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1140,20 +1483,60 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.8836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.021834319219482423</v>
+      </c>
+      <c r="E2">
+        <v>52.09259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-215.90768387010934</v>
+        <v>-104.82905598697442</v>
       </c>
       <c r="C3">
-        <v>1.3163824890775738e-14</v>
+        <v>0.008159911145579802</v>
       </c>
       <c r="D3">
+        <v>0.14825584742944337</v>
+      </c>
+      <c r="E3">
+        <v>1.4161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-102.2797136603981</v>
+      </c>
+      <c r="C4">
+        <v>0.04650597548831117</v>
+      </c>
+      <c r="D4">
+        <v>0.2085518974107666</v>
+      </c>
+      <c r="E4">
+        <v>0.53418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-102.0105773376583</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.3932620625362549</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1164,27 +1547,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1195,20 +1581,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.36778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03699291488488769</v>
+      </c>
+      <c r="E2">
+        <v>46.78724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-205.70438735399554</v>
+        <v>-100.85479603695075</v>
       </c>
       <c r="C3">
-        <v>1.3816773572981421e-14</v>
+        <v>0.07720000829522815</v>
       </c>
       <c r="D3">
+        <v>0.2227283653425293</v>
+      </c>
+      <c r="E3">
+        <v>1.72084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-97.44343294495314</v>
+      </c>
+      <c r="C4">
+        <v>0.09295804766118979</v>
+      </c>
+      <c r="D4">
+        <v>0.2194927269748535</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -1219,27 +1628,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1250,20 +1662,43 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>15.07099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.035866662500366214</v>
+      </c>
+      <c r="E2">
+        <v>52.74845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-214.18677486528318</v>
+        <v>-104.97223676644737</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.06501379057328756</v>
       </c>
       <c r="D3">
+        <v>0.2016168830267334</v>
+      </c>
+      <c r="E3">
+        <v>1.07153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-102.53029754612697</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.4449847361959228</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
